--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JideO\OneDrive\Documents\GeneralCoding\TVShowRatingComparer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE991AC7-0845-4ACB-87F2-B5BE6413DFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F7187D-78A4-4851-90FB-2EE1EF497C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{C5066F61-27FD-4B2A-985E-BE4F532484D8}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{C5066F61-27FD-4B2A-985E-BE4F532484D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Move to Heaven</t>
   </si>
@@ -196,16 +196,16 @@
     <t>MDL Rating</t>
   </si>
   <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>"Vincenzo"</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
     <t>A young boy who ends up in the U.S. after the 1871 Shinmiyangyo incident returns to Korea at a historical turning point and falls for a noblewoman.</t>
+  </si>
+  <si>
+    <t>15 wins &amp; 16 nominations.</t>
+  </si>
+  <si>
+    <t>Volume 90%</t>
+  </si>
+  <si>
+    <t>Trailer 0:48</t>
   </si>
 </sst>
 </file>
@@ -261,13 +261,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -334,6 +335,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EBC51A7-9234-41C2-8D50-330899E185F1}" name="Table1" displayName="Table1" ref="B2:D52" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="B2:D52" xr:uid="{7EBC51A7-9234-41C2-8D50-330899E185F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D52">
+    <sortCondition descending="1" ref="C2:C52"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{821E91FE-9CA3-4D66-892C-3928B2BFC7B4}" name="Shows" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{E163F7C0-9DFC-4713-B7CF-059D95B1D1DE}" name="IMDB Rating" dataDxfId="1"/>
@@ -642,12 +646,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD469F20-87F0-47CD-B7E4-432ECBF57885}">
   <dimension ref="B2:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" customWidth="1"/>
   </cols>
@@ -664,102 +669,102 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8.6</v>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D3" s="2">
-        <v>9.1999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8.6999999999999993</v>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="2">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8.6</v>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="2">
-        <v>9.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8.6</v>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D6" s="2">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.6</v>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="2">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8.6</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D8" s="2">
-        <v>8.3000000000000007</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>8.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D9" s="2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D10" s="2">
-        <v>9.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D11" s="2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="39.6" x14ac:dyDescent="0.3">
@@ -774,318 +779,452 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8.6999999999999993</v>
       </c>
       <c r="D13" s="2">
-        <v>9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8.6999999999999993</v>
       </c>
       <c r="D14" s="2">
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8.6</v>
       </c>
       <c r="D15" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D19" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="D17" s="2">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D33" s="2">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D34" s="2">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="C37" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D37" s="2">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D40" s="2">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C41" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D41" s="2">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C42" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C43" s="2">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="D44" s="2">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C45" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="D45" s="2">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C46" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="D46" s="2">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="D47" s="2">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="D48" s="2">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C50" s="4">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://mydramalist.com/49231-move-to-heaven" xr:uid="{4B40948A-BD30-4D10-A331-D42F4A74F6E9}"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://mydramalist.com/54625-flower-of-evil" xr:uid="{37199445-CCD4-4EA1-9057-9560216DC106}"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://mydramalist.com/36269-doctor-playbook" xr:uid="{4D3D04F1-47DC-4E6B-9717-48444348D0E7}"/>
-    <hyperlink ref="B8" r:id="rId4" display="https://mydramalist.com/22624-wise-prison-life" xr:uid="{DBDAB87C-8A1F-48E5-BE85-F1E11A84354F}"/>
-    <hyperlink ref="B9" r:id="rId5" display="https://mydramalist.com/58365-queen-cheorin" xr:uid="{E8C360A2-5CBB-440F-92BD-2A4D8FAABB83}"/>
-    <hyperlink ref="B10" r:id="rId6" display="https://mydramalist.com/21308-mother" xr:uid="{25A480CB-A644-4BF6-8F3E-0A115E499DFF}"/>
-    <hyperlink ref="B11" r:id="rId7" display="https://mydramalist.com/49865-psycho-but-it-s-okay" xr:uid="{E878C893-2E1F-4D22-A6FD-1A16C16E040D}"/>
-    <hyperlink ref="B13" r:id="rId8" display="https://mydramalist.com/59381-navillera" xr:uid="{1420CFBC-F1F1-44D7-9CB7-F88FC70BE368}"/>
-    <hyperlink ref="B14" r:id="rId9" display="https://mydramalist.com/61371-vincenzo" xr:uid="{AE9C279F-702F-4845-B96D-A978791DB5F4}"/>
-    <hyperlink ref="B15" r:id="rId10" display="https://mydramalist.com/13239-signal" xr:uid="{54C50B2B-E9C9-472F-848B-6B16D9C69F38}"/>
-    <hyperlink ref="B17" r:id="rId11" display="https://mydramalist.com/690709-happiness" xr:uid="{E57D1AD4-9107-4099-B65B-5C2F1FC2429A}"/>
+    <hyperlink ref="B15" r:id="rId1" display="https://mydramalist.com/49231-move-to-heaven" xr:uid="{4B40948A-BD30-4D10-A331-D42F4A74F6E9}"/>
+    <hyperlink ref="B11" r:id="rId2" display="https://mydramalist.com/54625-flower-of-evil" xr:uid="{37199445-CCD4-4EA1-9057-9560216DC106}"/>
+    <hyperlink ref="B16" r:id="rId3" display="https://mydramalist.com/36269-doctor-playbook" xr:uid="{4D3D04F1-47DC-4E6B-9717-48444348D0E7}"/>
+    <hyperlink ref="B18" r:id="rId4" display="https://mydramalist.com/22624-wise-prison-life" xr:uid="{DBDAB87C-8A1F-48E5-BE85-F1E11A84354F}"/>
+    <hyperlink ref="B19" r:id="rId5" display="https://mydramalist.com/58365-queen-cheorin" xr:uid="{E8C360A2-5CBB-440F-92BD-2A4D8FAABB83}"/>
+    <hyperlink ref="B48" r:id="rId6" display="https://mydramalist.com/21308-mother" xr:uid="{25A480CB-A644-4BF6-8F3E-0A115E499DFF}"/>
+    <hyperlink ref="B20" r:id="rId7" display="https://mydramalist.com/49865-psycho-but-it-s-okay" xr:uid="{E878C893-2E1F-4D22-A6FD-1A16C16E040D}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://mydramalist.com/59381-navillera" xr:uid="{1420CFBC-F1F1-44D7-9CB7-F88FC70BE368}"/>
+    <hyperlink ref="B8" r:id="rId9" display="https://mydramalist.com/61371-vincenzo" xr:uid="{AE9C279F-702F-4845-B96D-A978791DB5F4}"/>
+    <hyperlink ref="B28" r:id="rId10" display="https://mydramalist.com/13239-signal" xr:uid="{54C50B2B-E9C9-472F-848B-6B16D9C69F38}"/>
+    <hyperlink ref="B47" r:id="rId11" display="https://mydramalist.com/690709-happiness" xr:uid="{E57D1AD4-9107-4099-B65B-5C2F1FC2429A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
